--- a/run_entrance/test_suite/test_suite_wsjj01网上申请.xlsx
+++ b/run_entrance/test_suite/test_suite_wsjj01网上申请.xlsx
@@ -355,11 +355,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,11 +378,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,9 +444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,24 +459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,7 +476,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,7 +484,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,53 +521,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,187 +543,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,17 +737,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,26 +766,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,6 +794,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -822,9 +826,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,10 +842,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,137 +854,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,20 +1029,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1394,8 +1396,8 @@
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="44.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="22" customWidth="1"/>
-    <col min="5" max="5" width="84.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="84.875" style="21" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1409,10 +1411,10 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1429,10 +1431,10 @@
       <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1446,10 +1448,10 @@
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1460,10 +1462,10 @@
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1475,10 +1477,10 @@
       <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1490,10 +1492,10 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1505,8 +1507,8 @@
       <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="15"/>
@@ -1516,23 +1518,23 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" ht="14.25" spans="1:5">
       <c r="A10" s="15"/>
@@ -1542,10 +1544,10 @@
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1559,10 +1561,10 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1574,10 +1576,10 @@
       <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1591,10 +1593,10 @@
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1606,10 +1608,10 @@
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1621,10 +1623,10 @@
       <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1636,10 +1638,10 @@
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1653,10 +1655,10 @@
       <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1668,23 +1670,23 @@
       <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" s="15"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="15"/>
@@ -1694,25 +1696,25 @@
       <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="28"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1726,10 +1728,10 @@
       <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1741,10 +1743,10 @@
       <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1755,10 +1757,10 @@
       <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1770,10 +1772,10 @@
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1781,13 +1783,13 @@
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="23" t="s">
+      <c r="D26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1798,10 +1800,10 @@
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1815,10 +1817,10 @@
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="23" t="s">
+      <c r="D28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1829,10 +1831,10 @@
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="23" t="s">
+      <c r="D29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1844,10 +1846,10 @@
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="23" t="s">
+      <c r="D30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1858,10 +1860,10 @@
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1872,10 +1874,10 @@
       <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="23" t="s">
+      <c r="D32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1904,13 +1906,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="21"/>
+      <c r="A3" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1934,8 +1936,8 @@
   <cols>
     <col min="1" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="43.875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="41.75" style="19" customWidth="1"/>
+    <col min="4" max="4" width="43.875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="41.75" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
@@ -1948,10 +1950,10 @@
       <c r="C1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1968,10 +1970,10 @@
       <c r="B2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1982,7 +1984,7 @@
       <c r="B3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1993,7 +1995,7 @@
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2004,7 +2006,7 @@
       <c r="B5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2015,7 +2017,7 @@
       <c r="B6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2180,15 +2182,15 @@
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" ht="14.25" spans="1:6">
       <c r="A10" t="s">
@@ -2335,7 +2337,7 @@
       <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="12"/>
